--- a/2024/shuffle-architecute/Teste10/content/results/metrics_5_5.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_5_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,926 +488,852 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_24</t>
+          <t>model_5_5_22</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9424370423868036</v>
+        <v>0.9185565905719533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7240115034763848</v>
+        <v>0.7178869965189398</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9388110350714322</v>
+        <v>0.8751028897988398</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7337853423639628</v>
+        <v>0.9015160033004159</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9005595231868967</v>
+        <v>0.9031647555670033</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2415794134140015</v>
+        <v>0.3418005704879761</v>
       </c>
       <c r="H2" t="n">
-        <v>1.845536351203918</v>
+        <v>1.886490941047668</v>
       </c>
       <c r="I2" t="n">
-        <v>0.479758083820343</v>
+        <v>0.07462172210216522</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4977038502693176</v>
+        <v>0.8882690668106079</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4887309670448303</v>
+        <v>0.4814455509185791</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_23</t>
+          <t>model_5_5_21</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9421142762329855</v>
+        <v>0.91803749291542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7233402687206552</v>
+        <v>0.7174612713526738</v>
       </c>
       <c r="D3" t="n">
-        <v>0.938334945076009</v>
+        <v>0.877211438378009</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7370354256473556</v>
+        <v>0.9025002114794428</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9007979122457158</v>
+        <v>0.9041842232457165</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2429339736700058</v>
+        <v>0.3439790606498718</v>
       </c>
       <c r="H3" t="n">
-        <v>1.850024938583374</v>
+        <v>1.889337778091431</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4834909439086914</v>
+        <v>0.07336193323135376</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4916276335716248</v>
+        <v>0.879392147064209</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4875593185424805</v>
+        <v>0.4763769507408142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_22</t>
+          <t>model_5_5_20</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9417796004880017</v>
+        <v>0.9174853212102495</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7226587649229266</v>
+        <v>0.7170081411620276</v>
       </c>
       <c r="D4" t="n">
-        <v>0.937849316163066</v>
+        <v>0.8791905856692565</v>
       </c>
       <c r="E4" t="n">
-        <v>0.740275853267838</v>
+        <v>0.9034499884482214</v>
       </c>
       <c r="F4" t="n">
-        <v>0.90102685977318</v>
+        <v>0.9051646257321544</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2443385571241379</v>
+        <v>0.3462964296340942</v>
       </c>
       <c r="H4" t="n">
-        <v>1.854582190513611</v>
+        <v>1.892367839813232</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4872985482215881</v>
+        <v>0.07217946648597717</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4855694472789764</v>
+        <v>0.8708256483078003</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4864340424537659</v>
+        <v>0.4715025722980499</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_21</t>
+          <t>model_5_5_19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9414327193466218</v>
+        <v>0.9168994730423293</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7219668554113938</v>
+        <v>0.7165273655597104</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9373540366960064</v>
+        <v>0.8810300296378425</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7435052533172605</v>
+        <v>0.9043653517088832</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9012460361311636</v>
+        <v>0.9061054409510522</v>
       </c>
       <c r="G5" t="n">
-        <v>0.245794340968132</v>
+        <v>0.3487551510334015</v>
       </c>
       <c r="H5" t="n">
-        <v>1.859208822250366</v>
+        <v>1.895582914352417</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4911818504333496</v>
+        <v>0.07108046114444733</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4795319139957428</v>
+        <v>0.8625696301460266</v>
       </c>
       <c r="K5" t="n">
-        <v>0.485356867313385</v>
+        <v>0.4668250679969788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_20</t>
+          <t>model_5_5_18</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9410732982328158</v>
+        <v>0.916279422139386</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7212643648868347</v>
+        <v>0.7160186688988748</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9368488579896956</v>
+        <v>0.8827190847869992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7467224551405214</v>
+        <v>0.9052466027730748</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9014549775914562</v>
+        <v>0.907006307419758</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2473027408123016</v>
+        <v>0.3513573110103607</v>
       </c>
       <c r="H6" t="n">
-        <v>1.863906502723694</v>
+        <v>1.898984432220459</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4951427578926086</v>
+        <v>0.07007130980491638</v>
       </c>
       <c r="J6" t="n">
-        <v>0.473517119884491</v>
+        <v>0.8546212315559387</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4843299388885498</v>
+        <v>0.4623461365699768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_19</t>
+          <t>model_5_5_17</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9407009557514092</v>
+        <v>0.915624571685332</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7205510986498098</v>
+        <v>0.7154817964426008</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9363334468900917</v>
+        <v>0.8842461926982675</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7499258397465224</v>
+        <v>0.9060937572326655</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9016531249449902</v>
+        <v>0.9078664485523391</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2488653957843781</v>
+        <v>0.3541055917739868</v>
       </c>
       <c r="H7" t="n">
-        <v>1.868675947189331</v>
+        <v>1.90257465839386</v>
       </c>
       <c r="I7" t="n">
-        <v>0.499183863401413</v>
+        <v>0.06915891170501709</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4675282537937164</v>
+        <v>0.8469803929328918</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4833561182022095</v>
+        <v>0.4580696523189545</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_18</t>
+          <t>model_5_5_16</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9403153448185586</v>
+        <v>0.9149343567046559</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7198269414557026</v>
+        <v>0.7149165757828548</v>
       </c>
       <c r="D8" t="n">
-        <v>0.935807549819723</v>
+        <v>0.8856005595390627</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7531142379746149</v>
+        <v>0.9069071186128215</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9018400662928902</v>
+        <v>0.9086855910474929</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2504837214946747</v>
+        <v>0.3570022583007812</v>
       </c>
       <c r="H8" t="n">
-        <v>1.873518466949463</v>
+        <v>1.906354308128357</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5033072233200073</v>
+        <v>0.06834972649812698</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4615673422813416</v>
+        <v>0.8396443128585815</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4824373126029968</v>
+        <v>0.4539970457553864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_17</t>
+          <t>model_5_5_15</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9399161181544611</v>
+        <v>0.9142081208670381</v>
       </c>
       <c r="C9" t="n">
-        <v>0.719091688166251</v>
+        <v>0.714322725357084</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9352710347374585</v>
+        <v>0.886769305817474</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7562861095415754</v>
+        <v>0.907686860824841</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9020154085997314</v>
+        <v>0.9094630857209651</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2521592080593109</v>
+        <v>0.3600501120090485</v>
       </c>
       <c r="H9" t="n">
-        <v>1.878435254096985</v>
+        <v>1.910325169563293</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5075138211250305</v>
+        <v>0.06765143573284149</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4556373655796051</v>
+        <v>0.8326115608215332</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4815755486488342</v>
+        <v>0.4501315057277679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_16</t>
+          <t>model_5_5_14</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9395029642456848</v>
+        <v>0.9134453704208231</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7183451873238732</v>
+        <v>0.7137000668166251</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9347236902334655</v>
+        <v>0.8877409339078035</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7594400501594327</v>
+        <v>0.9084332700982732</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9021786786330377</v>
+        <v>0.9101984980817539</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2538931369781494</v>
+        <v>0.363251268863678</v>
       </c>
       <c r="H10" t="n">
-        <v>1.883427023887634</v>
+        <v>1.914489030838013</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5118052959442139</v>
+        <v>0.06707092374563217</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4497408866882324</v>
+        <v>0.8258793354034424</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4807730913162231</v>
+        <v>0.4464752078056335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_15</t>
+          <t>model_5_5_13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9390754035942528</v>
+        <v>0.9126454256803709</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7175871913446054</v>
+        <v>0.7130484491601281</v>
       </c>
       <c r="D11" t="n">
-        <v>0.934165103473197</v>
+        <v>0.8885014973272525</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7625742592610102</v>
+        <v>0.9091466525397198</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9023292397521062</v>
+        <v>0.9108912927665123</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2556875050067902</v>
+        <v>0.3666084408760071</v>
       </c>
       <c r="H11" t="n">
-        <v>1.888495802879333</v>
+        <v>1.918846368789673</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5161849856376648</v>
+        <v>0.06661652028560638</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4438812732696533</v>
+        <v>0.819445013999939</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4800330996513367</v>
+        <v>0.4430307447910309</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_14</t>
+          <t>model_5_5_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9386330730341271</v>
+        <v>0.9118076945788004</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7168175799603052</v>
+        <v>0.7123676503514647</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9335949984961832</v>
+        <v>0.8890384166507418</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7656876658214271</v>
+        <v>0.9098273288667063</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9024666554002666</v>
+        <v>0.9115409548767099</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2575438618659973</v>
+        <v>0.3701242506504059</v>
       </c>
       <c r="H12" t="n">
-        <v>1.89364218711853</v>
+        <v>1.923398852348328</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5206549167633057</v>
+        <v>0.06629572808742523</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4380606114864349</v>
+        <v>0.813305675983429</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4793577492237091</v>
+        <v>0.4398007392883301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_13</t>
+          <t>model_5_5_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9381756767875047</v>
+        <v>0.9109315100353252</v>
       </c>
       <c r="C13" t="n">
-        <v>0.71603615192056</v>
+        <v>0.7116575432702201</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9330131820068586</v>
+        <v>0.8893376070529728</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7687788344182682</v>
+        <v>0.9104754658915833</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9025904916559875</v>
+        <v>0.9121468319031452</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2594634592533112</v>
+        <v>0.3738013803958893</v>
       </c>
       <c r="H13" t="n">
-        <v>1.89886748790741</v>
+        <v>1.928147315979004</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5252166986465454</v>
+        <v>0.06611696630716324</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4322814643383026</v>
+        <v>0.8074598908424377</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4787490963935852</v>
+        <v>0.4367884695529938</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_12</t>
+          <t>model_5_5_10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9377027244079869</v>
+        <v>0.9100162620636856</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7152427111575776</v>
+        <v>0.7109179598034988</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9324193790840962</v>
+        <v>0.8893837090091601</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7718458137936468</v>
+        <v>0.9110916673088176</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9027001731114982</v>
+        <v>0.912708565196396</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2614483237266541</v>
+        <v>0.3776424825191498</v>
       </c>
       <c r="H14" t="n">
-        <v>1.904173374176025</v>
+        <v>1.933092832565308</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5298724770545959</v>
+        <v>0.06608942151069641</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4265475571155548</v>
+        <v>0.8019021153450012</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478210061788559</v>
+        <v>0.4339956045150757</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_11</t>
+          <t>model_5_5_9</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9372138448045961</v>
+        <v>0.9090613993911132</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7144370826461408</v>
+        <v>0.7101487970692192</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9318131636417234</v>
+        <v>0.8891615970076768</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7748874646759805</v>
+        <v>0.9116764160017019</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9027951345205982</v>
+        <v>0.9132255945613789</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2635000646114349</v>
+        <v>0.3816498219966888</v>
       </c>
       <c r="H15" t="n">
-        <v>1.909560680389404</v>
+        <v>1.938236355781555</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5346255898475647</v>
+        <v>0.06622212380170822</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4208610355854034</v>
+        <v>0.7966279983520508</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4777433276176453</v>
+        <v>0.4314250349998474</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_10</t>
+          <t>model_5_5_8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9367085673639833</v>
+        <v>0.9080660615169545</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7136190452925379</v>
+        <v>0.7093499619012311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9311942125627839</v>
+        <v>0.8886553488010048</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7779022709423746</v>
+        <v>0.912229934593219</v>
       </c>
       <c r="F16" t="n">
-        <v>0.902874836443684</v>
+        <v>0.9136972341457584</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2656205892562866</v>
+        <v>0.3858270943164825</v>
       </c>
       <c r="H16" t="n">
-        <v>1.915030717849731</v>
+        <v>1.943578243255615</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5394785404205322</v>
+        <v>0.06652459502220154</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4152246713638306</v>
+        <v>0.7916355729103088</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4773516058921814</v>
+        <v>0.4290801584720612</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_9</t>
+          <t>model_5_5_7</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9361866010470957</v>
+        <v>0.907029817061469</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7127884113512459</v>
+        <v>0.7085213999103207</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9305623820244492</v>
+        <v>0.8878489775493177</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7808889530917106</v>
+        <v>0.9127530996355495</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9029389105534599</v>
+        <v>0.914123345548603</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2678111791610718</v>
+        <v>0.3901759386062622</v>
       </c>
       <c r="H17" t="n">
-        <v>1.92058527469635</v>
+        <v>1.949118852615356</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5444324612617493</v>
+        <v>0.06700637191534042</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4096408784389496</v>
+        <v>0.786916971206665</v>
       </c>
       <c r="K17" t="n">
-        <v>0.477036714553833</v>
+        <v>0.4269616305828094</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_8</t>
+          <t>model_5_5_6</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9356474102483537</v>
+        <v>0.9059518768830944</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7119449857105021</v>
+        <v>0.7076629859100131</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9299170793561015</v>
+        <v>0.886724316008336</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7838459444387561</v>
+        <v>0.9132463523476204</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9029865932280915</v>
+        <v>0.914503172206836</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2700740396976471</v>
+        <v>0.3946998119354248</v>
       </c>
       <c r="H18" t="n">
-        <v>1.926225185394287</v>
+        <v>1.954859018325806</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5494920015335083</v>
+        <v>0.06767831742763519</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4041126370429993</v>
+        <v>0.7824681401252747</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4768023490905762</v>
+        <v>0.4250732064247131</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_7</t>
+          <t>model_5_5_5</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9350905669971273</v>
+        <v>0.9048317854673651</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7110885432985237</v>
+        <v>0.7067748079999487</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9292580053234066</v>
+        <v>0.8852638361832974</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7867719312345038</v>
+        <v>0.9137106736748569</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9030173984946499</v>
+        <v>0.9148365774346835</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2724109888076782</v>
+        <v>0.3994006216526031</v>
       </c>
       <c r="H19" t="n">
-        <v>1.931952238082886</v>
+        <v>1.960798382759094</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5546595454216003</v>
+        <v>0.06855090707540512</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3986423015594482</v>
+        <v>0.7782801389694214</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4766509532928467</v>
+        <v>0.4234155714511871</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_6</t>
+          <t>model_5_5_4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9345157140338085</v>
+        <v>0.903668769120052</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7102188823624065</v>
+        <v>0.7058568702980079</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9285848157627086</v>
+        <v>0.8834484332002323</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7896655565153378</v>
+        <v>0.9141467691751635</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9030307779955107</v>
+        <v>0.9151230722793995</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2748235464096069</v>
+        <v>0.4042815864086151</v>
       </c>
       <c r="H20" t="n">
-        <v>1.937767624855042</v>
+        <v>1.966936588287354</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5599377751350403</v>
+        <v>0.0696355476975441</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3932325541973114</v>
+        <v>0.7743468284606934</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4765852093696594</v>
+        <v>0.4219911694526672</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_5</t>
+          <t>model_5_5_3</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9339223393072492</v>
+        <v>0.9024623064151251</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7093358258025073</v>
+        <v>0.7049092698418343</v>
       </c>
       <c r="D21" t="n">
-        <v>0.927896999124127</v>
+        <v>0.8812586469655324</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7925257840646861</v>
+        <v>0.9145556691510092</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9030261605509692</v>
+        <v>0.9153623480588604</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2773137986660004</v>
+        <v>0.4093448221683502</v>
       </c>
       <c r="H21" t="n">
-        <v>1.943672657012939</v>
+        <v>1.973273158073425</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5653306245803833</v>
+        <v>0.07094386965036392</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3878851234912872</v>
+        <v>0.7706588506698608</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4766078591346741</v>
+        <v>0.4208015203475952</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_4</t>
+          <t>model_5_5_2</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9333100291209406</v>
+        <v>0.9012117769385488</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7084391114131412</v>
+        <v>0.7039320973322607</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9271943793503462</v>
+        <v>0.8786751852415624</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7953514037489716</v>
+        <v>0.9149383964703293</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9030031226201651</v>
+        <v>0.9155543136884936</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2798835039138794</v>
+        <v>0.4145930409431458</v>
       </c>
       <c r="H22" t="n">
-        <v>1.949669122695923</v>
+        <v>1.979807496070862</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5708395838737488</v>
+        <v>0.07248739898204803</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3826024830341339</v>
+        <v>0.7672068476676941</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4767211079597473</v>
+        <v>0.4198471307754517</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_3</t>
+          <t>model_5_5_1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9326782859876611</v>
+        <v>0.8999166476944059</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7075285285144817</v>
+        <v>0.7029256522162819</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9264761919005008</v>
+        <v>0.8756764723691743</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7981409647653637</v>
+        <v>0.9152963174352151</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9029608311675574</v>
+        <v>0.9156987809126629</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2825348079204559</v>
+        <v>0.420028418302536</v>
       </c>
       <c r="H23" t="n">
-        <v>1.955758094787598</v>
+        <v>1.986537575721741</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5764706134796143</v>
+        <v>0.07427902519702911</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3773872554302216</v>
+        <v>0.7639786005020142</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4769289493560791</v>
+        <v>0.4191288948059082</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_2</t>
+          <t>model_5_5_0</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9320266671787492</v>
+        <v>0.8985763139606737</v>
       </c>
       <c r="C24" t="n">
-        <v>0.70660389235718</v>
+        <v>0.7018900980663448</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9257420762487027</v>
+        <v>0.8722424496342188</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8008938178984317</v>
+        <v>0.9156306808408222</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9028988487659918</v>
+        <v>0.91579573938209</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2852695286273956</v>
+        <v>0.425653487443924</v>
       </c>
       <c r="H24" t="n">
-        <v>1.961941123008728</v>
+        <v>1.993462324142456</v>
       </c>
       <c r="I24" t="n">
-        <v>0.582226574420929</v>
+        <v>0.07633073627948761</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3722406327724457</v>
+        <v>0.7609628438949585</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4772336184978485</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_1</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9313547678900043</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7056649178377925</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.9249917175927418</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.8036089297492712</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9028167346988311</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.2880893647670746</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.968220114707947</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.5881098508834839</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.3671645522117615</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.4776371717453003</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_0</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9306619790352253</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.7047114430266157</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9242242743467252</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.8062850576021092</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.90271356816264</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.2909968495368958</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.97459602355957</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.5941269993782043</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.36216139793396</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.4781442284584045</v>
+        <v>0.4186468124389648</v>
       </c>
     </row>
   </sheetData>
